--- a/gripper_test/gripper_data_wire.xlsx
+++ b/gripper_test/gripper_data_wire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssr\EJC\Multimodal_Intervention_Robot\gripper_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eric\Projects\Multimodal_Intervention_Robot\gripper_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B561871-9A6F-4A98-8255-A0A8797BBF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8BD797-65F6-4893-89D6-55BE83EBD31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8929B1A5-52CD-4BD9-8320-26FF6CCFD826}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8929B1A5-52CD-4BD9-8320-26FF6CCFD826}"/>
   </bookViews>
   <sheets>
     <sheet name="gripper_data_wire" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,7 +91,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,7 +99,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -108,7 +108,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,7 +117,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,7 +126,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,7 +134,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,7 +142,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -158,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,7 +167,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +176,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,7 +184,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,7 +193,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -201,7 +201,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,7 +210,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +219,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,14 +227,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -671,48 +671,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,7 +728,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1048,17 +1048,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>23.38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.2</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.2</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>31.92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.2</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>25.23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.2</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>32.21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>31.89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>41.02</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.2</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.2</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.2</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>12.76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.2</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.2</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.2</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.2</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>22.84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>31.91</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>28.19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.2</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>38.01</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.2</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>41.09</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.5</v>
       </c>
@@ -1843,7 +1847,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.5</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>37.74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.5</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>37.630000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.5</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.5</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.5</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.5</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.5</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.5</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.5</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>20.54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.5</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.5</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>36.340000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.5</v>
       </c>
@@ -2193,7 +2197,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.5</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>38.590000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.5</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.5</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>19.07</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.5</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.5</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.5</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>28.93</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>15.44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>21.02</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>27.88</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>35.729999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>13.39</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>19.36</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3543,7 +3547,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>24.07</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3743,7 +3747,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3943,7 +3947,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>21.19</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4068,7 +4072,7 @@
         <v>24.71</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>31.62</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4443,7 +4447,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4618,7 +4622,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>22.18</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4718,7 +4722,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4743,7 +4747,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>26.98</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>

--- a/gripper_test/gripper_data_wire.xlsx
+++ b/gripper_test/gripper_data_wire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eric\Projects\Multimodal_Intervention_Robot\gripper_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8BD797-65F6-4893-89D6-55BE83EBD31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF4BA6-2F4A-46CB-B968-6317502039D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8929B1A5-52CD-4BD9-8320-26FF6CCFD826}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="14">
   <si>
     <t>diameter</t>
   </si>
@@ -73,6 +73,9 @@
   <si>
     <t>cos_tilt</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmse</t>
   </si>
 </sst>
 </file>
@@ -1044,11 +1047,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2C9B70-3992-471A-87A2-9313A2229059}">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1062,9 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1121,6 +1126,20 @@
       <c r="G2">
         <v>7.75</v>
       </c>
+      <c r="H2">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I2">
+        <v>-5.952</v>
+      </c>
+      <c r="J2">
+        <f>H2*E2+I2</f>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K2">
+        <f>J2-G2</f>
+        <v>-8.1999999999998963E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1146,6 +1165,20 @@
       <c r="G3">
         <v>6.26</v>
       </c>
+      <c r="H3">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I3">
+        <v>-5.952</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="2">H3*E3+I3</f>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="3">J3-G3</f>
+        <v>1.4080000000000013</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1171,6 +1204,20 @@
       <c r="G4">
         <v>14.11</v>
       </c>
+      <c r="H4">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I4">
+        <v>-5.952</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0.36800000000000033</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1196,6 +1243,20 @@
       <c r="G5">
         <v>16.149999999999999</v>
       </c>
+      <c r="H5">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I5">
+        <v>-5.952</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>-1.6719999999999988</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1221,6 +1282,20 @@
       <c r="G6">
         <v>23.38</v>
       </c>
+      <c r="H6">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I6">
+        <v>-5.952</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>-2.0919999999999952</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1246,6 +1321,20 @@
       <c r="G7">
         <v>22.98</v>
       </c>
+      <c r="H7">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I7">
+        <v>-5.952</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>-1.6919999999999966</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1271,6 +1360,20 @@
       <c r="G8">
         <v>31.92</v>
       </c>
+      <c r="H8">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I8">
+        <v>-5.952</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>-3.8219999999999956</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1296,6 +1399,20 @@
       <c r="G9">
         <v>25.23</v>
       </c>
+      <c r="H9">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I9">
+        <v>-5.952</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>2.8680000000000057</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1321,6 +1438,20 @@
       <c r="G10">
         <v>32.21</v>
       </c>
+      <c r="H10">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I10">
+        <v>-5.952</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>2.6980000000000004</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1346,6 +1477,20 @@
       <c r="G11">
         <v>31.89</v>
       </c>
+      <c r="H11">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I11">
+        <v>-5.952</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>3.0180000000000007</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1371,6 +1516,20 @@
       <c r="G12">
         <v>41.02</v>
       </c>
+      <c r="H12">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I12">
+        <v>-5.952</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>-6.1120000000000019</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1396,6 +1555,20 @@
       <c r="G13">
         <v>8.5299999999999994</v>
       </c>
+      <c r="H13">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I13">
+        <v>-5.952</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>-0.86199999999999832</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1421,6 +1594,20 @@
       <c r="G14">
         <v>7.79</v>
       </c>
+      <c r="H14">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I14">
+        <v>-5.952</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-0.121999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1446,6 +1633,20 @@
       <c r="G15">
         <v>7.64</v>
       </c>
+      <c r="H15">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I15">
+        <v>-5.952</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>2.8000000000001357E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1471,8 +1672,22 @@
       <c r="G16">
         <v>12.76</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I16">
+        <v>-5.952</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>1.718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.2</v>
       </c>
@@ -1496,8 +1711,22 @@
       <c r="G17">
         <v>14.28</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I17">
+        <v>-5.952</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.1980000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.2</v>
       </c>
@@ -1521,8 +1750,22 @@
       <c r="G18">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I18">
+        <v>-5.952</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>-2.9219999999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.2</v>
       </c>
@@ -1546,8 +1789,22 @@
       <c r="G19">
         <v>22.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I19">
+        <v>-5.952</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>-1.5419999999999945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.2</v>
       </c>
@@ -1571,8 +1828,22 @@
       <c r="G20">
         <v>23.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I20">
+        <v>-5.952</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>-1.7219999999999978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -1596,8 +1867,22 @@
       <c r="G21">
         <v>22.84</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I21">
+        <v>-5.952</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>-1.551999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -1621,8 +1906,22 @@
       <c r="G22">
         <v>31.91</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I22">
+        <v>-5.952</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>-3.8119999999999941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -1646,8 +1945,22 @@
       <c r="G23">
         <v>28.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I23">
+        <v>-5.952</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>-9.1999999999995197E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.2</v>
       </c>
@@ -1671,8 +1984,22 @@
       <c r="G24">
         <v>28.07</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I24">
+        <v>-5.952</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>2.8000000000005798E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -1696,8 +2023,22 @@
       <c r="G25">
         <v>38.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I25">
+        <v>-5.952</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>-3.1019999999999968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -1721,8 +2062,22 @@
       <c r="G26">
         <v>36.76</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I26">
+        <v>-5.952</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>-1.8519999999999968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.2</v>
       </c>
@@ -1746,8 +2101,22 @@
       <c r="G27">
         <v>41.09</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I27">
+        <v>-5.952</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>-6.1820000000000022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -1771,8 +2140,22 @@
       <c r="G28">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I28">
+        <v>-5.952</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>-3.4319999999999986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -1796,8 +2179,22 @@
       <c r="G29">
         <v>11.73</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I29">
+        <v>-5.952</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>-4.0619999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1821,8 +2218,22 @@
       <c r="G30">
         <v>9.31</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I30">
+        <v>-5.952</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>-1.6419999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.5</v>
       </c>
@@ -1846,8 +2257,22 @@
       <c r="G31">
         <v>22.79</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I31">
+        <v>-5.952</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>-1.5019999999999953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -1871,8 +2296,22 @@
       <c r="G32">
         <v>19.78</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I32">
+        <v>-5.952</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>1.5080000000000027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.5</v>
       </c>
@@ -1896,8 +2335,22 @@
       <c r="G33">
         <v>37.74</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I33">
+        <v>-5.952</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>-2.8320000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.5</v>
       </c>
@@ -1921,8 +2374,22 @@
       <c r="G34">
         <v>37.630000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I34">
+        <v>-5.952</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-2.7220000000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.5</v>
       </c>
@@ -1946,8 +2413,22 @@
       <c r="G35">
         <v>15.92</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I35">
+        <v>-5.952</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>-1.4420000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.5</v>
       </c>
@@ -1971,8 +2452,22 @@
       <c r="G36">
         <v>18.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I36">
+        <v>-5.952</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>-3.572000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -1996,8 +2491,22 @@
       <c r="G37">
         <v>29.32</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I37">
+        <v>-5.952</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>-1.2219999999999942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.5</v>
       </c>
@@ -2021,8 +2530,22 @@
       <c r="G38">
         <v>26.67</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I38">
+        <v>-5.952</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>1.4280000000000044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.5</v>
       </c>
@@ -2046,8 +2569,22 @@
       <c r="G39">
         <v>9.08</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I39">
+        <v>-5.952</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>-1.411999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.5</v>
       </c>
@@ -2071,8 +2608,22 @@
       <c r="G40">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I40">
+        <v>-5.952</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>-0.68199999999999861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.5</v>
       </c>
@@ -2096,8 +2647,22 @@
       <c r="G41">
         <v>23.22</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I41">
+        <v>-5.952</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>-1.9319999999999951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.5</v>
       </c>
@@ -2121,8 +2686,22 @@
       <c r="G42">
         <v>20.54</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I42">
+        <v>-5.952</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0.74800000000000466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.5</v>
       </c>
@@ -2146,8 +2725,22 @@
       <c r="G43">
         <v>20.85</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I43">
+        <v>-5.952</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0.43800000000000239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.5</v>
       </c>
@@ -2171,8 +2764,22 @@
       <c r="G44">
         <v>36.340000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I44">
+        <v>-5.952</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>-1.4320000000000022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.5</v>
       </c>
@@ -2196,8 +2803,22 @@
       <c r="G45">
         <v>39.01</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I45">
+        <v>-5.952</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>-4.1019999999999968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.5</v>
       </c>
@@ -2221,8 +2842,22 @@
       <c r="G46">
         <v>38.590000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I46">
+        <v>-5.952</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>-3.6820000000000022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.5</v>
       </c>
@@ -2246,8 +2881,22 @@
       <c r="G47">
         <v>15.18</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I47">
+        <v>-5.952</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>-0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.5</v>
       </c>
@@ -2271,8 +2920,22 @@
       <c r="G48">
         <v>19.07</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I48">
+        <v>-5.952</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>-4.5920000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.5</v>
       </c>
@@ -2296,8 +2959,22 @@
       <c r="G49">
         <v>14.88</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I49">
+        <v>-5.952</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>-0.40200000000000102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.5</v>
       </c>
@@ -2321,8 +2998,22 @@
       <c r="G50">
         <v>29.14</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I50">
+        <v>-5.952</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>-1.0419999999999945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.5</v>
       </c>
@@ -2346,8 +3037,22 @@
       <c r="G51">
         <v>28.93</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I51">
+        <v>-5.952</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>-0.83199999999999363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -2371,8 +3076,22 @@
       <c r="G52">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I52">
+        <v>-5.952</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>-0.25199999999999534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2396,8 +3115,22 @@
       <c r="G53">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I53">
+        <v>-5.952</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>0.74800000000000111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2421,8 +3154,22 @@
       <c r="G54">
         <v>11.02</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I54">
+        <v>-5.952</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>3.4580000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2446,8 +3193,22 @@
       <c r="G55">
         <v>14.23</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I55">
+        <v>-5.952</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>0.24799999999999933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2471,8 +3232,22 @@
       <c r="G56">
         <v>15.44</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I56">
+        <v>-5.952</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>5.8480000000000043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2496,8 +3271,22 @@
       <c r="G57">
         <v>16.350000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I57">
+        <v>-5.952</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>4.9380000000000024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2521,8 +3310,22 @@
       <c r="G58">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I58">
+        <v>-5.952</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>3.8880000000000052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2546,8 +3349,22 @@
       <c r="G59">
         <v>24.11</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I59">
+        <v>-5.952</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>3.9880000000000067</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2571,8 +3388,22 @@
       <c r="G60">
         <v>21.02</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I60">
+        <v>-5.952</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>7.0780000000000065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2596,8 +3427,22 @@
       <c r="G61">
         <v>31.67</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I61">
+        <v>-5.952</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>3.2379999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2621,8 +3466,22 @@
       <c r="G62">
         <v>29.74</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I62">
+        <v>-5.952</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>5.1680000000000028</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2646,8 +3505,22 @@
       <c r="G63">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I63">
+        <v>-5.952</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>-0.26199999999999868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2671,8 +3544,22 @@
       <c r="G64">
         <v>8.7200000000000006</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I64">
+        <v>-5.952</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>-1.0519999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2696,8 +3583,22 @@
       <c r="G65">
         <v>6.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I65">
+        <v>-5.952</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>1.2780000000000014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2721,8 +3622,22 @@
       <c r="G66">
         <v>6.34</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I66">
+        <v>-5.952</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>1.3280000000000012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2733,21 +3648,35 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">COS(PI()*C67/180)</f>
+        <f t="shared" ref="D67:D130" si="4">COS(PI()*C67/180)</f>
         <v>1</v>
       </c>
       <c r="E67">
         <v>15</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="3">0.0254*E67</f>
+        <f t="shared" ref="F67:F130" si="5">0.0254*E67</f>
         <v>0.38100000000000001</v>
       </c>
       <c r="G67">
         <v>12.97</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I67">
+        <v>-5.952</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="6">H67*E67+I67</f>
+        <v>14.478</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="7">J67-G67</f>
+        <v>1.5079999999999991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2758,21 +3687,35 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E68">
         <v>15</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G68">
         <v>13.66</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I68">
+        <v>-5.952</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>0.81799999999999962</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2783,21 +3726,35 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E69">
         <v>15</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G69">
         <v>10.56</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I69">
+        <v>-5.952</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="7"/>
+        <v>3.9179999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2808,21 +3765,35 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E70">
         <v>20</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G70">
         <v>16.420000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I70">
+        <v>-5.952</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>4.8680000000000021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2833,21 +3804,35 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E71">
         <v>20</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G71">
         <v>15.74</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I71">
+        <v>-5.952</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>5.5480000000000036</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2858,21 +3843,35 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E72">
         <v>25</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G72">
         <v>27.88</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I72">
+        <v>-5.952</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>0.21800000000000708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2883,21 +3882,35 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E73">
         <v>25</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G73">
         <v>22.75</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I73">
+        <v>-5.952</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>5.3480000000000061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2908,21 +3921,35 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E74">
         <v>25</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G74">
         <v>24.61</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I74">
+        <v>-5.952</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="7"/>
+        <v>3.4880000000000067</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2933,21 +3960,35 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E75">
         <v>30</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G75">
         <v>35.729999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I75">
+        <v>-5.952</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>-0.82199999999999562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2958,21 +3999,35 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E76">
         <v>30</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G76">
         <v>34.97</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I76">
+        <v>-5.952</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>-6.1999999999997613E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2983,21 +4038,35 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E77">
         <v>30</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G77">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I77">
+        <v>-5.952</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>1.7980000000000018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3008,21 +4077,35 @@
         <v>10</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E78">
         <v>10</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G78">
         <v>7.17</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I78">
+        <v>-5.952</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>0.49800000000000111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3033,21 +4116,35 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E79">
         <v>10</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G79">
         <v>5.31</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I79">
+        <v>-5.952</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>2.3580000000000014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3058,21 +4155,35 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G80">
         <v>6.53</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I80">
+        <v>-5.952</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>1.1380000000000008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3083,21 +4194,35 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G81">
         <v>6.01</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I81">
+        <v>-5.952</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>1.6580000000000013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3108,21 +4233,35 @@
         <v>10</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G82">
         <v>6.94</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I82">
+        <v>-5.952</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>0.72800000000000065</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3133,21 +4272,35 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E83">
         <v>15</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G83">
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I83">
+        <v>-5.952</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>5.6980000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3158,21 +4311,35 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E84">
         <v>15</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G84">
         <v>10.89</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I84">
+        <v>-5.952</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>3.5879999999999992</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3183,21 +4350,35 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E85">
         <v>15</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G85">
         <v>8.6199999999999992</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I85">
+        <v>-5.952</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>5.8580000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3208,21 +4389,35 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E86">
         <v>15</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G86">
         <v>10.83</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I86">
+        <v>-5.952</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>3.6479999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3233,21 +4428,35 @@
         <v>10</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E87">
         <v>15</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G87">
         <v>9.94</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I87">
+        <v>-5.952</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>4.5380000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3258,21 +4467,35 @@
         <v>10</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E88">
         <v>20</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G88">
         <v>14.64</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I88">
+        <v>-5.952</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>6.6480000000000032</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3283,21 +4506,35 @@
         <v>10</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E89">
         <v>20</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G89">
         <v>13.08</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I89">
+        <v>-5.952</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>8.2080000000000037</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3308,21 +4545,35 @@
         <v>10</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E90">
         <v>20</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G90">
         <v>12.52</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I90">
+        <v>-5.952</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>8.7680000000000042</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3333,21 +4584,35 @@
         <v>10</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E91">
         <v>20</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G91">
         <v>13.38</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I91">
+        <v>-5.952</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>7.908000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3358,21 +4623,35 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E92">
         <v>20</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G92">
         <v>13.39</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I92">
+        <v>-5.952</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>7.8980000000000032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3383,21 +4662,35 @@
         <v>10</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E93">
         <v>25</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G93">
         <v>21.54</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I93">
+        <v>-5.952</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>6.5580000000000069</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3408,21 +4701,35 @@
         <v>10</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E94">
         <v>25</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G94">
         <v>19.36</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I94">
+        <v>-5.952</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>8.7380000000000067</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3433,21 +4740,35 @@
         <v>10</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E95">
         <v>25</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G95">
         <v>18.059999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I95">
+        <v>-5.952</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>10.038000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3458,21 +4779,35 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E96">
         <v>25</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G96">
         <v>17.63</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I96">
+        <v>-5.952</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>10.468000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3483,21 +4818,35 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E97">
         <v>25</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G97">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I97">
+        <v>-5.952</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>9.7980000000000054</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3508,21 +4857,35 @@
         <v>10</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E98">
         <v>30</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G98">
         <v>24.33</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I98">
+        <v>-5.952</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>10.578000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3533,21 +4896,35 @@
         <v>10</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E99">
         <v>30</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G99">
         <v>21.64</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I99">
+        <v>-5.952</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>13.268000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3558,21 +4935,35 @@
         <v>10</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G100">
         <v>22.95</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I100">
+        <v>-5.952</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>11.958000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3583,21 +4974,35 @@
         <v>10</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G101">
         <v>24.07</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I101">
+        <v>-5.952</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>10.838000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3608,21 +5013,35 @@
         <v>10</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G102">
         <v>21.83</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I102">
+        <v>-5.952</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>13.078000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3633,21 +5052,35 @@
         <v>20</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E103">
         <v>10</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G103">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I103">
+        <v>-5.952</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>1.6480000000000015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3658,21 +5091,35 @@
         <v>20</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E104">
         <v>10</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G104">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I104">
+        <v>-5.952</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>-6.1999999999999389E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3683,21 +5130,35 @@
         <v>20</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E105">
         <v>10</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G105">
         <v>5.69</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I105">
+        <v>-5.952</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>1.9780000000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3708,21 +5169,35 @@
         <v>20</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E106">
         <v>10</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G106">
         <v>6.89</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I106">
+        <v>-5.952</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>0.77800000000000136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3733,21 +5208,35 @@
         <v>20</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E107">
         <v>10</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G107">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I107">
+        <v>-5.952</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>1.6780000000000008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3758,21 +5247,35 @@
         <v>20</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E108">
         <v>15</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G108">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I108">
+        <v>-5.952</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>0.72799999999999976</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3783,21 +5286,35 @@
         <v>20</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E109">
         <v>15</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G109">
         <v>13.13</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I109">
+        <v>-5.952</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>1.347999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3808,21 +5325,35 @@
         <v>20</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E110">
         <v>15</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G110">
         <v>14.62</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I110">
+        <v>-5.952</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>-0.14199999999999946</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3833,21 +5364,35 @@
         <v>20</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E111">
         <v>15</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G111">
         <v>13.82</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I111">
+        <v>-5.952</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>0.65799999999999947</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3858,21 +5403,35 @@
         <v>20</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E112">
         <v>15</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G112">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I112">
+        <v>-5.952</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="6"/>
+        <v>14.478</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>-0.12199999999999989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3883,21 +5442,35 @@
         <v>20</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E113">
         <v>20</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G113">
         <v>18.13</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I113">
+        <v>-5.952</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="7"/>
+        <v>3.1580000000000048</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3908,21 +5481,35 @@
         <v>20</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E114">
         <v>20</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G114">
         <v>18.93</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I114">
+        <v>-5.952</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>2.3580000000000041</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3933,21 +5520,35 @@
         <v>20</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E115">
         <v>20</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G115">
         <v>17.75</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I115">
+        <v>-5.952</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="7"/>
+        <v>3.5380000000000038</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3958,21 +5559,35 @@
         <v>20</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E116">
         <v>20</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G116">
         <v>18.41</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I116">
+        <v>-5.952</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="7"/>
+        <v>2.8780000000000037</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3983,21 +5598,35 @@
         <v>20</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E117">
         <v>20</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G117">
         <v>17.46</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I117">
+        <v>-5.952</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="6"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="7"/>
+        <v>3.828000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4008,21 +5637,35 @@
         <v>20</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E118">
         <v>25</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G118">
         <v>21.19</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I118">
+        <v>-5.952</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="7"/>
+        <v>6.9080000000000048</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4033,21 +5676,35 @@
         <v>20</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E119">
         <v>25</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G119">
         <v>22.77</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I119">
+        <v>-5.952</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="7"/>
+        <v>5.3280000000000065</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4058,21 +5715,35 @@
         <v>20</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E120">
         <v>25</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G120">
         <v>24.71</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I120">
+        <v>-5.952</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>3.3880000000000052</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4083,21 +5754,35 @@
         <v>20</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E121">
         <v>25</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G121">
         <v>26.41</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I121">
+        <v>-5.952</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="7"/>
+        <v>1.6880000000000059</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4108,21 +5793,35 @@
         <v>20</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E122">
         <v>25</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G122">
         <v>24.16</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I122">
+        <v>-5.952</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="6"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="7"/>
+        <v>3.9380000000000059</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4133,21 +5832,35 @@
         <v>20</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E123">
         <v>30</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G123">
         <v>32.450000000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I123">
+        <v>-5.952</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="7"/>
+        <v>2.4579999999999984</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4158,21 +5871,35 @@
         <v>20</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E124">
         <v>30</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G124">
         <v>31.62</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I124">
+        <v>-5.952</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="7"/>
+        <v>3.2880000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4183,21 +5910,35 @@
         <v>20</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E125">
         <v>30</v>
       </c>
       <c r="F125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G125">
         <v>28.53</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I125">
+        <v>-5.952</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="7"/>
+        <v>6.3780000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4208,21 +5949,35 @@
         <v>20</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E126">
         <v>30</v>
       </c>
       <c r="F126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G126">
         <v>31.35</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I126">
+        <v>-5.952</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="7"/>
+        <v>3.5579999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4233,21 +5988,35 @@
         <v>20</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="E127">
         <v>30</v>
       </c>
       <c r="F127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G127">
         <v>28.27</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I127">
+        <v>-5.952</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="6"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="7"/>
+        <v>6.6380000000000017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4258,21 +6027,35 @@
         <v>30</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E128">
         <v>10</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G128">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I128">
+        <v>-5.952</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="7"/>
+        <v>-0.11199999999999921</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4283,21 +6066,35 @@
         <v>30</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E129">
         <v>10</v>
       </c>
       <c r="F129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G129">
         <v>6.19</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I129">
+        <v>-5.952</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="7"/>
+        <v>1.4780000000000006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4308,21 +6105,35 @@
         <v>30</v>
       </c>
       <c r="D130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E130">
         <v>10</v>
       </c>
       <c r="F130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.254</v>
       </c>
       <c r="G130">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I130">
+        <v>-5.952</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="6"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="7"/>
+        <v>-0.4919999999999991</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4333,21 +6144,35 @@
         <v>30</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D152" si="4">COS(PI()*C131/180)</f>
+        <f t="shared" ref="D131:D152" si="8">COS(PI()*C131/180)</f>
         <v>0.86602540378443871</v>
       </c>
       <c r="E131">
         <v>10</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F152" si="5">0.0254*E131</f>
+        <f t="shared" ref="F131:F152" si="9">0.0254*E131</f>
         <v>0.254</v>
       </c>
       <c r="G131">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I131">
+        <v>-5.952</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J152" si="10">H131*E131+I131</f>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K152" si="11">J131-G131</f>
+        <v>-6.1999999999999389E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4358,21 +6183,35 @@
         <v>30</v>
       </c>
       <c r="D132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E132">
         <v>10</v>
       </c>
       <c r="F132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.254</v>
       </c>
       <c r="G132">
         <v>5.87</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I132">
+        <v>-5.952</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="10"/>
+        <v>7.668000000000001</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="11"/>
+        <v>1.7980000000000009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4383,21 +6222,35 @@
         <v>30</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E133">
         <v>15</v>
       </c>
       <c r="F133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G133">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I133">
+        <v>-5.952</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="10"/>
+        <v>14.478</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="11"/>
+        <v>2.677999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4408,21 +6261,35 @@
         <v>30</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E134">
         <v>15</v>
       </c>
       <c r="F134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G134">
         <v>11.63</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I134">
+        <v>-5.952</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="10"/>
+        <v>14.478</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="11"/>
+        <v>2.847999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4433,21 +6300,35 @@
         <v>30</v>
       </c>
       <c r="D135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E135">
         <v>15</v>
       </c>
       <c r="F135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G135">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I135">
+        <v>-5.952</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="10"/>
+        <v>14.478</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="11"/>
+        <v>1.5879999999999992</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4458,21 +6339,35 @@
         <v>30</v>
       </c>
       <c r="D136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E136">
         <v>15</v>
       </c>
       <c r="F136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G136">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I136">
+        <v>-5.952</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="10"/>
+        <v>14.478</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="11"/>
+        <v>3.1280000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4483,21 +6378,35 @@
         <v>30</v>
       </c>
       <c r="D137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E137">
         <v>15</v>
       </c>
       <c r="F137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G137">
         <v>12.74</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I137">
+        <v>-5.952</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="10"/>
+        <v>14.478</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="11"/>
+        <v>1.7379999999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4508,21 +6417,35 @@
         <v>30</v>
       </c>
       <c r="D138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E138">
         <v>20</v>
       </c>
       <c r="F138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G138">
         <v>15.35</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I138">
+        <v>-5.952</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="10"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="11"/>
+        <v>5.9380000000000042</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4533,21 +6456,35 @@
         <v>30</v>
       </c>
       <c r="D139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E139">
         <v>20</v>
       </c>
       <c r="F139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G139">
         <v>14.96</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I139">
+        <v>-5.952</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="10"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="11"/>
+        <v>6.328000000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4558,21 +6495,35 @@
         <v>30</v>
       </c>
       <c r="D140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E140">
         <v>20</v>
       </c>
       <c r="F140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G140">
         <v>18.14</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I140">
+        <v>-5.952</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="10"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="11"/>
+        <v>3.1480000000000032</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4583,21 +6534,35 @@
         <v>30</v>
       </c>
       <c r="D141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E141">
         <v>20</v>
       </c>
       <c r="F141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G141">
         <v>15.14</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I141">
+        <v>-5.952</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="10"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="11"/>
+        <v>6.1480000000000032</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4608,21 +6573,35 @@
         <v>30</v>
       </c>
       <c r="D142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E142">
         <v>20</v>
       </c>
       <c r="F142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G142">
         <v>17.940000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I142">
+        <v>-5.952</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="10"/>
+        <v>21.288000000000004</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="11"/>
+        <v>3.3480000000000025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4633,21 +6612,35 @@
         <v>30</v>
       </c>
       <c r="D143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E143">
         <v>25</v>
       </c>
       <c r="F143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G143">
         <v>23.71</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I143">
+        <v>-5.952</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="10"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="11"/>
+        <v>4.3880000000000052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4658,21 +6651,35 @@
         <v>30</v>
       </c>
       <c r="D144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E144">
         <v>25</v>
       </c>
       <c r="F144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G144">
         <v>22.18</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I144">
+        <v>-5.952</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="10"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="11"/>
+        <v>5.9180000000000064</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4683,21 +6690,35 @@
         <v>30</v>
       </c>
       <c r="D145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E145">
         <v>25</v>
       </c>
       <c r="F145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G145">
         <v>22.06</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I145">
+        <v>-5.952</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="10"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="11"/>
+        <v>6.0380000000000074</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4708,21 +6729,35 @@
         <v>30</v>
       </c>
       <c r="D146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E146">
         <v>25</v>
       </c>
       <c r="F146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G146">
         <v>21.36</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I146">
+        <v>-5.952</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="10"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="11"/>
+        <v>6.7380000000000067</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4733,21 +6768,35 @@
         <v>30</v>
       </c>
       <c r="D147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E147">
         <v>25</v>
       </c>
       <c r="F147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G147">
         <v>21.72</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I147">
+        <v>-5.952</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="10"/>
+        <v>28.098000000000006</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="11"/>
+        <v>6.3780000000000072</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4758,21 +6807,35 @@
         <v>30</v>
       </c>
       <c r="D148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E148">
         <v>30</v>
       </c>
       <c r="F148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G148">
         <v>26.98</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I148">
+        <v>-5.952</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="10"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="11"/>
+        <v>7.9280000000000008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4783,21 +6846,35 @@
         <v>30</v>
       </c>
       <c r="D149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E149">
         <v>30</v>
       </c>
       <c r="F149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G149">
         <v>28.89</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I149">
+        <v>-5.952</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="10"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="11"/>
+        <v>6.0180000000000007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4808,21 +6885,35 @@
         <v>30</v>
       </c>
       <c r="D150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E150">
         <v>30</v>
       </c>
       <c r="F150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G150">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I150">
+        <v>-5.952</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="10"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="11"/>
+        <v>6.458000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4833,21 +6924,35 @@
         <v>30</v>
       </c>
       <c r="D151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E151">
         <v>30</v>
       </c>
       <c r="F151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G151">
         <v>26.75</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I151">
+        <v>-5.952</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="10"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="11"/>
+        <v>8.1580000000000013</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4858,18 +6963,41 @@
         <v>30</v>
       </c>
       <c r="D152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E152">
         <v>30</v>
       </c>
       <c r="F152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G152">
         <v>29.96</v>
+      </c>
+      <c r="H152">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I152">
+        <v>-5.952</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="10"/>
+        <v>34.908000000000001</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="11"/>
+        <v>4.9480000000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <f>SQRT(SUMSQ(K2:K152)/COUNT(K2:K152))</f>
+        <v>4.5046000064981424</v>
+      </c>
+      <c r="L153" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
